--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>№</t>
   </si>
@@ -557,12 +557,15 @@
 6. В поле "Пол" выбрать "Девушка";
 7. Проверить, что кнопка "Зарегистрироваться" неактивна.</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -614,6 +617,11 @@
       <color theme="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -647,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -886,9 +894,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -897,12 +903,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -916,7 +978,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1001,15 +1063,12 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,6 +1086,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2206,19 +2272,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="5"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2242,9 +2308,9 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3326,19 +3392,19 @@
   <sheetData>
     <row r="1" spans="1:256" ht="26.25" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="5"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3362,9 +3428,9 @@
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +4865,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -4816,19 +4882,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="5"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4852,9 +4918,9 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
@@ -4899,8 +4965,10 @@
       <c r="F3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="26"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4933,8 +5001,10 @@
       <c r="F4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4967,8 +5037,10 @@
       <c r="F5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -5001,8 +5073,10 @@
       <c r="F6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="52"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
@@ -5037,8 +5111,10 @@
       <c r="F7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="53"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -5071,7 +5147,9 @@
       <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="56" t="s">
+        <v>100</v>
+      </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -5107,8 +5185,10 @@
       <c r="F9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="54"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
@@ -5141,26 +5221,28 @@
       <c r="F10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="G10" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
     </row>
     <row r="11" spans="1:26" ht="265" customHeight="1">
       <c r="A11" s="17"/>
@@ -5177,8 +5259,10 @@
       <c r="F11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="55"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -5213,8 +5297,10 @@
       <c r="F12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="26"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
